--- a/data/interim/ingredient_foogroup.xlsx
+++ b/data/interim/ingredient_foogroup.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFA6CF3-4969-4352-8C76-3566C1D66140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F94252E-0AB1-4B96-BDE4-CA7A114F16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA10D444-6987-41C5-8376-A7FC524D0AE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE3BD29E-CB4C-4573-995E-39C48F09266D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingredients!$A$1:$B$201</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,10 +39,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F7FF18D2-F37B-4C55-B39F-7D0972B99644}</author>
+    <author>tc={5D4D25B5-C345-46DC-84D3-31D475B54D0B}</author>
   </authors>
   <commentList>
-    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{F7FF18D2-F37B-4C55-B39F-7D0972B99644}">
+    <comment ref="A341" authorId="0" shapeId="0" xr:uid="{5D4D25B5-C345-46DC-84D3-31D475B54D0B}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +55,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="556">
+  <si>
+    <t>Aquatic Plants</t>
+  </si>
+  <si>
+    <t>Fish &amp; Crustaceans (capture)</t>
+  </si>
+  <si>
+    <t>Butter, Cream &amp; Ghee</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Animal Fats</t>
+  </si>
+  <si>
+    <t>Stimulants &amp; Spices Misc.</t>
+  </si>
+  <si>
+    <t>Sweeteners &amp; Honey</t>
+  </si>
+  <si>
+    <t>Oils Misc.</t>
+  </si>
+  <si>
+    <t>Cereals &amp; Oilcrops Misc.</t>
+  </si>
+  <si>
+    <t>Crustaceans (farmed)</t>
+  </si>
+  <si>
+    <t>Fish (farmed)</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Poultry Meat</t>
+  </si>
+  <si>
+    <t>Pig Meat</t>
+  </si>
+  <si>
+    <t>Lamb &amp; Mutton</t>
+  </si>
+  <si>
+    <t>Bovine Meat (dairy herd)</t>
+  </si>
+  <si>
+    <t>Bovine Meat (beef herd)</t>
+  </si>
+  <si>
+    <t>Dark Chocolate</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Other Fruit</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Berries &amp; Grapes</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Citrus Fruit</t>
+  </si>
+  <si>
+    <t>Other Vegetables</t>
+  </si>
+  <si>
+    <t>Brassicas</t>
+  </si>
+  <si>
+    <t>Root Vegetables</t>
+  </si>
+  <si>
+    <t>Onions &amp; Leeks</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>Rapeseed Oil</t>
+  </si>
+  <si>
+    <t>Sunflower Oil</t>
+  </si>
+  <si>
+    <t>Palm Oil</t>
+  </si>
+  <si>
+    <t>Soybean Oil</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>Soymilk</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Other Pulses</t>
+  </si>
+  <si>
+    <t>Beet Sugar</t>
+  </si>
+  <si>
+    <t>Cane Sugar</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Barley (Beer)</t>
+  </si>
+  <si>
+    <t>Maize (Meal)</t>
+  </si>
+  <si>
+    <t>Wheat &amp; Rye (Bread)</t>
+  </si>
   <si>
     <t>Ingredient</t>
   </si>
@@ -65,12 +219,15 @@
     <t>Food group</t>
   </si>
   <si>
-    <t>Rice</t>
+    <t>Datasource</t>
   </si>
   <si>
     <t>Bread wheat</t>
   </si>
   <si>
+    <t>Poore&amp;Nemecek</t>
+  </si>
+  <si>
     <t>Rye</t>
   </si>
   <si>
@@ -119,24 +276,15 @@
     <t>Oats</t>
   </si>
   <si>
-    <t>Peeled oats</t>
-  </si>
-  <si>
     <t>Jasmine rice</t>
   </si>
   <si>
     <t>Long grain rice</t>
   </si>
   <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
     <t>Sweet potatoes</t>
   </si>
   <si>
-    <t>Cassava</t>
-  </si>
-  <si>
     <t>Sugar</t>
   </si>
   <si>
@@ -173,12 +321,12 @@
     <t>Runner beans</t>
   </si>
   <si>
-    <t>Peas</t>
-  </si>
-  <si>
     <t>Almonds</t>
   </si>
   <si>
+    <t>Carob</t>
+  </si>
+  <si>
     <t>Cashew nuts</t>
   </si>
   <si>
@@ -197,15 +345,9 @@
     <t>Peanuts</t>
   </si>
   <si>
-    <t>Soybeans</t>
-  </si>
-  <si>
     <t>Soybean oil</t>
   </si>
   <si>
-    <t>Soybean</t>
-  </si>
-  <si>
     <t>Palm oil</t>
   </si>
   <si>
@@ -218,9 +360,6 @@
     <t>Sunflower seeds</t>
   </si>
   <si>
-    <t>Canola</t>
-  </si>
-  <si>
     <t>Canola oil</t>
   </si>
   <si>
@@ -245,9 +384,6 @@
     <t>Virgin olive oil</t>
   </si>
   <si>
-    <t>Tomatoes</t>
-  </si>
-  <si>
     <t>Tomatoes (baby plum)</t>
   </si>
   <si>
@@ -269,7 +405,7 @@
     <t>Spring onions</t>
   </si>
   <si>
-    <t>Bunched carrots</t>
+    <t>Garlic</t>
   </si>
   <si>
     <t>Carrots</t>
@@ -305,6 +441,9 @@
     <t>Artichokes</t>
   </si>
   <si>
+    <t>Chicory</t>
+  </si>
+  <si>
     <t>Courgette</t>
   </si>
   <si>
@@ -314,6 +453,12 @@
     <t>Endive</t>
   </si>
   <si>
+    <t>Sim beans</t>
+  </si>
+  <si>
+    <t>French beans</t>
+  </si>
+  <si>
     <t>Green beans</t>
   </si>
   <si>
@@ -353,10 +498,7 @@
     <t>Oranges</t>
   </si>
   <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Apples</t>
+    <t>Tangerine</t>
   </si>
   <si>
     <t>Blueberries</t>
@@ -374,9 +516,6 @@
     <t>White wine</t>
   </si>
   <si>
-    <t>Wine</t>
-  </si>
-  <si>
     <t>Wine grapes</t>
   </si>
   <si>
@@ -425,9 +564,18 @@
     <t>Beef</t>
   </si>
   <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
     <t>Lamb</t>
   </si>
   <si>
+    <t>Kid</t>
+  </si>
+  <si>
     <t>Mutton</t>
   </si>
   <si>
@@ -446,6 +594,9 @@
     <t>Duck</t>
   </si>
   <si>
+    <t>Buffalo milk</t>
+  </si>
+  <si>
     <t>Cow milk</t>
   </si>
   <si>
@@ -473,27 +624,81 @@
     <t>Chicken eggs</t>
   </si>
   <si>
+    <t>Brook trout</t>
+  </si>
+  <si>
+    <t>Brown trout</t>
+  </si>
+  <si>
+    <t>Tench</t>
+  </si>
+  <si>
+    <t>Roach</t>
+  </si>
+  <si>
+    <t>Perch</t>
+  </si>
+  <si>
+    <t>Artich char</t>
+  </si>
+  <si>
     <t>Common carp</t>
   </si>
   <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>Sander</t>
+  </si>
+  <si>
     <t>Grass carp</t>
   </si>
   <si>
+    <t>Silver carp</t>
+  </si>
+  <si>
+    <t>Big head carp</t>
+  </si>
+  <si>
+    <t>Catfish</t>
+  </si>
+  <si>
     <t>Pangasius</t>
   </si>
   <si>
+    <t>Rainbown trout</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
     <t>Sea bass</t>
   </si>
   <si>
+    <t>Sea bream</t>
+  </si>
+  <si>
     <t>Tambaqui</t>
   </si>
   <si>
     <t>Tilapia</t>
   </si>
   <si>
+    <t>African catfish</t>
+  </si>
+  <si>
+    <t>Striped catfish</t>
+  </si>
+  <si>
+    <t>Kissing gourami</t>
+  </si>
+  <si>
+    <t>Giant gourami</t>
+  </si>
+  <si>
+    <t>Silver barb</t>
+  </si>
+  <si>
     <t>Trout</t>
   </si>
   <si>
@@ -512,228 +717,6 @@
     <t>Tiger prawn</t>
   </si>
   <si>
-    <t>Wheat &amp; Rye (Bread)</t>
-  </si>
-  <si>
-    <t>Maize (Meal)</t>
-  </si>
-  <si>
-    <t>Barley (Beer)</t>
-  </si>
-  <si>
-    <t>Oatmeal</t>
-  </si>
-  <si>
-    <t>Cane Sugar</t>
-  </si>
-  <si>
-    <t>Beet Sugar</t>
-  </si>
-  <si>
-    <t>Other Pulses</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>Groundnuts</t>
-  </si>
-  <si>
-    <t>Soymilk</t>
-  </si>
-  <si>
-    <t>Tofu</t>
-  </si>
-  <si>
-    <t>Soybean Oil</t>
-  </si>
-  <si>
-    <t>Palm Oil</t>
-  </si>
-  <si>
-    <t>Sunflower Oil</t>
-  </si>
-  <si>
-    <t>Rapeseed Oil</t>
-  </si>
-  <si>
-    <t>Olive Oil</t>
-  </si>
-  <si>
-    <t>Root Vegetables</t>
-  </si>
-  <si>
-    <t>Brassicas</t>
-  </si>
-  <si>
-    <t>Other Vegetables</t>
-  </si>
-  <si>
-    <t>Citrus Fruit</t>
-  </si>
-  <si>
-    <t>Berries &amp; Grapes</t>
-  </si>
-  <si>
-    <t>Other Fruit</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Dark Chocolate</t>
-  </si>
-  <si>
-    <t>Bovine Meat (beef herd)</t>
-  </si>
-  <si>
-    <t>Bovine Meat (dairy herd)</t>
-  </si>
-  <si>
-    <t>Lamb &amp; Mutton</t>
-  </si>
-  <si>
-    <t>Pig Meat</t>
-  </si>
-  <si>
-    <t>Poultry Meat</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Cheese</t>
-  </si>
-  <si>
-    <t>Eggs</t>
-  </si>
-  <si>
-    <t>Fish (farmed)</t>
-  </si>
-  <si>
-    <t>Crustaceans (farmed)</t>
-  </si>
-  <si>
-    <t>African catfish</t>
-  </si>
-  <si>
-    <t>Kissing gourami</t>
-  </si>
-  <si>
-    <t>Giant gourami</t>
-  </si>
-  <si>
-    <t>Silver barb</t>
-  </si>
-  <si>
-    <t>Artich char</t>
-  </si>
-  <si>
-    <t>Brown trout</t>
-  </si>
-  <si>
-    <t>Rainbown trout</t>
-  </si>
-  <si>
-    <t>Brook trout</t>
-  </si>
-  <si>
-    <t>Tench</t>
-  </si>
-  <si>
-    <t>Roach</t>
-  </si>
-  <si>
-    <t>Perch</t>
-  </si>
-  <si>
-    <t>Pike</t>
-  </si>
-  <si>
-    <t>Sander</t>
-  </si>
-  <si>
-    <t>Catfish</t>
-  </si>
-  <si>
-    <t>Big head carp</t>
-  </si>
-  <si>
-    <t>Silver carp</t>
-  </si>
-  <si>
-    <t>Sea bream</t>
-  </si>
-  <si>
-    <t>Striped catfish</t>
-  </si>
-  <si>
-    <t>Buffalo milk</t>
-  </si>
-  <si>
-    <t>Kid</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>French beans</t>
-  </si>
-  <si>
-    <t>Sim beans</t>
-  </si>
-  <si>
-    <t>Carob</t>
-  </si>
-  <si>
-    <t>Cereals &amp; Oilcrops Misc.</t>
-  </si>
-  <si>
-    <t>Oils Misc.</t>
-  </si>
-  <si>
-    <t>Sweeteners &amp; Honey</t>
-  </si>
-  <si>
-    <t>Stimulants &amp; Spices Misc.</t>
-  </si>
-  <si>
-    <t>Animal Fats</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Butter, Cream &amp; Ghee</t>
-  </si>
-  <si>
-    <t>Fish &amp; Crustaceans (capture)</t>
-  </si>
-  <si>
-    <t>Aquatic Plants</t>
-  </si>
-  <si>
-    <t>Datasource</t>
-  </si>
-  <si>
-    <t>Poore&amp;Nemecek</t>
-  </si>
-  <si>
-    <t>Chicory</t>
-  </si>
-  <si>
-    <t>Tangerine</t>
-  </si>
-  <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>https://foodfireknives.com/a-chefs-eye-view-on-cooking-onion-and-garlic/#:~:text=Both%20onion%20and%20garlic%20are%20from%20the%20allium,of%20vegetables%2C%20which%20includes%20leeks%2C%20chives%2C%20and%20scallions.</t>
-  </si>
-  <si>
     <t>Cereals</t>
   </si>
   <si>
@@ -761,21 +744,996 @@
     <t>Ghee</t>
   </si>
   <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>Onions &amp; Leeks</t>
+    <t>PA based on AGRIBALYSE</t>
+  </si>
+  <si>
+    <t>Turbot</t>
+  </si>
+  <si>
+    <t>Mediterranean bass</t>
+  </si>
+  <si>
+    <t>Gilthead seabream</t>
+  </si>
+  <si>
+    <t>Alaska pollock</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>American bass</t>
+  </si>
+  <si>
+    <t>Anchovy</t>
+  </si>
+  <si>
+    <t>Anglerfish</t>
+  </si>
+  <si>
+    <t>Arctic char</t>
+  </si>
+  <si>
+    <t>Atlantic bass</t>
+  </si>
+  <si>
+    <t>Atlantic chub mackerel</t>
+  </si>
+  <si>
+    <t>Atlantic halibut</t>
+  </si>
+  <si>
+    <t>Atlantic herring</t>
+  </si>
+  <si>
+    <t>Bigeye scad</t>
+  </si>
+  <si>
+    <t>Big-scale sand smelt</t>
+  </si>
+  <si>
+    <t>Black seabream</t>
+  </si>
+  <si>
+    <t>Blackspot seabream</t>
+  </si>
+  <si>
+    <t>Blue grenadier</t>
+  </si>
+  <si>
+    <t>Blue ling</t>
+  </si>
+  <si>
+    <t>Blue shark</t>
+  </si>
+  <si>
+    <t>Bogue</t>
+  </si>
+  <si>
+    <t>Brown bullhead</t>
+  </si>
+  <si>
+    <t>Brown meagre</t>
+  </si>
+  <si>
+    <t>Capelin</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Common dab</t>
+  </si>
+  <si>
+    <t>Common dentex</t>
+  </si>
+  <si>
+    <t>Common sole</t>
+  </si>
+  <si>
+    <t>Conger</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Crevalle jack</t>
+  </si>
+  <si>
+    <t>Deep water pink shrimp</t>
+  </si>
+  <si>
+    <t>Pilchard</t>
+  </si>
+  <si>
+    <t>Sardine</t>
+  </si>
+  <si>
+    <t>Hake</t>
+  </si>
+  <si>
+    <t>Plaice</t>
+  </si>
+  <si>
+    <t>Garfish</t>
+  </si>
+  <si>
+    <t>Golden redfish</t>
+  </si>
+  <si>
+    <t>Greenland halibut</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>Haddock</t>
+  </si>
+  <si>
+    <t>Wild lobster</t>
+  </si>
+  <si>
+    <t>Lobster</t>
+  </si>
+  <si>
+    <t>Lemon sole</t>
+  </si>
+  <si>
+    <t>Ling</t>
+  </si>
+  <si>
+    <t>Megrim</t>
+  </si>
+  <si>
+    <t>Mullet</t>
+  </si>
+  <si>
+    <t>Nile perch</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>Mussel</t>
+  </si>
+  <si>
+    <t>Wild mussel</t>
+  </si>
+  <si>
+    <t>Wild crab</t>
+  </si>
+  <si>
+    <t>Wild oyster</t>
+  </si>
+  <si>
+    <t>Sea scallop</t>
+  </si>
+  <si>
+    <t>Pollack</t>
+  </si>
+  <si>
+    <t>Pond smelt</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Red gurnard</t>
+  </si>
+  <si>
+    <t>Saithe</t>
+  </si>
+  <si>
+    <t>Snails</t>
+  </si>
+  <si>
+    <t>Wild snail</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>Snapper</t>
+  </si>
+  <si>
+    <t>Spotted wolffish</t>
+  </si>
+  <si>
+    <t>Surimi</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Tonguesole</t>
+  </si>
+  <si>
+    <t>Tub gurnard</t>
+  </si>
+  <si>
+    <t>Whiting</t>
+  </si>
+  <si>
+    <t>Abondance cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Asiago cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Auvergne blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Beaufort cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Bresse blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie de Meaux cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Brie de Melun cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Camembert cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Carré de l'Est cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Causses blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Chabichou cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Chaource cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cheddar cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cantal cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Cheese, buche, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, dry, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Cheese, semi-dry, from goat's milk</t>
+  </si>
+  <si>
+    <t>Chevrot cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Comté cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Corsica soft ripened cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Coulommiers cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Crottin cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Crottin de Chavignol cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Edam cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Emmental cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Époisses cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Feta cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Feta-type cheese from cow's milk</t>
+  </si>
+  <si>
+    <t>Fontina cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Fourme d'Ambert cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Fourme de Montbrison cheese</t>
+  </si>
+  <si>
+    <t>Gex blue cheese, or Jura blue cheese or Septmoncel blue cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Goat cheese from raw milk</t>
+  </si>
+  <si>
+    <t>Gorgonzola cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Gouda cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Grana Padano cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Gruyere cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Hard cheese, emmental-type cheese, reduced fat</t>
+  </si>
+  <si>
+    <t>Langres cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Livarot cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Maroilles cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Mimolette cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Morbier cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Mozzarella cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Munster cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Neufchâtel cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Ossau-Iraty cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Parmesan cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pélardon cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Picodon cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Plant-based cheese, without soybean, prepacked, shredded</t>
+  </si>
+  <si>
+    <t>Plant-based cheese, without soybean, prepacked, sliced</t>
+  </si>
+  <si>
+    <t>Plant-based spread-cheese type, with soybean, prepacked</t>
+  </si>
+  <si>
+    <t>Pont l'Evêque cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pouligny Saint-Pierre cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Provolone cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Pyrénées cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Raclette cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Reblochon cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Rocamadour cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Roquefort cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Sainte Maure cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Saint-Felicien cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Marcellin cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Nectaire cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Saint-Paulin cheese, from cow's milk (semi-hard cheese)</t>
+  </si>
+  <si>
+    <t>Salers cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Selles-sur-Cher cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Semi-hard cheese, from ewe's milk</t>
+  </si>
+  <si>
+    <t>Tomme cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Vacherin cheese or Mont d'or cheese, from cow's milk</t>
+  </si>
+  <si>
+    <t>Valençay cheese, from goat's milk</t>
+  </si>
+  <si>
+    <t>Processed cheese</t>
+  </si>
+  <si>
+    <t>Uncured soft cheese, spreadable</t>
+  </si>
+  <si>
+    <t>Soft ripened cheese</t>
+  </si>
+  <si>
+    <t>Condensed milk</t>
+  </si>
+  <si>
+    <t>Milk powder</t>
+  </si>
+  <si>
+    <t>Duck eggs</t>
+  </si>
+  <si>
+    <t>Goose eggs</t>
+  </si>
+  <si>
+    <t>Turkey eggs</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Beef sausages</t>
+  </si>
+  <si>
+    <t>Pork sausages</t>
+  </si>
+  <si>
+    <t>Chicken sausages</t>
+  </si>
+  <si>
+    <t>Bresaola</t>
+  </si>
+  <si>
+    <t>Pork burger</t>
+  </si>
+  <si>
+    <t>Chicken burger</t>
+  </si>
+  <si>
+    <t>Veal</t>
+  </si>
+  <si>
+    <t>Beef burger</t>
+  </si>
+  <si>
+    <t>Pork ribs</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>Black currants</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Carambola</t>
+  </si>
+  <si>
+    <t>Cranberries</t>
+  </si>
+  <si>
+    <t>Fig</t>
+  </si>
+  <si>
+    <t>Gooseberry</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Lychee</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Passion fruit</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Raisin</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
+    <t>Red kidney beans</t>
+  </si>
+  <si>
+    <t>Split pea</t>
+  </si>
+  <si>
+    <t>Haricot beans</t>
+  </si>
+  <si>
+    <t>Flageolet beans</t>
+  </si>
+  <si>
+    <t>Beer, alcohol-free (&lt;1,2° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, dark</t>
+  </si>
+  <si>
+    <t>Beer, low alcohol-content (3° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, regular (4-5° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, special (5-6° alcohol)</t>
+  </si>
+  <si>
+    <t>Beer, "specialty", from abbey or regional (varying alcohol content)</t>
+  </si>
+  <si>
+    <t>Beer, strong (&gt;8° alcohol)</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Bran grain bread</t>
+  </si>
+  <si>
+    <t>Bread, French bread, baguette</t>
+  </si>
+  <si>
+    <t>Bread, gluten free</t>
+  </si>
+  <si>
+    <t>Brioche</t>
+  </si>
+  <si>
+    <t>Corn tortilla wrap, to be filled</t>
+  </si>
+  <si>
+    <t>Crispbread, extruded and grilled</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>Croutons</t>
+  </si>
+  <si>
+    <t>English muffin, prepacked</t>
+  </si>
+  <si>
+    <t>Grissini or bread stick</t>
+  </si>
+  <si>
+    <t>Milk roll, prepacked</t>
+  </si>
+  <si>
+    <t>Panini bread</t>
+  </si>
+  <si>
+    <t>Pita bread</t>
+  </si>
+  <si>
+    <t>Rolls for hamburger/hotdog (buns), prepacked</t>
+  </si>
+  <si>
+    <t>Rusk</t>
+  </si>
+  <si>
+    <t>Rye bread, and wheat</t>
+  </si>
+  <si>
+    <t>Sandwich loaf</t>
+  </si>
+  <si>
+    <t>Wheat tortilla wrap, to be filled</t>
+  </si>
+  <si>
+    <t>Chocolate croissant</t>
+  </si>
+  <si>
+    <t>Corn chips or tortilla chips</t>
+  </si>
+  <si>
+    <t>Breakfast cereals</t>
+  </si>
+  <si>
+    <t>Cereal bar</t>
+  </si>
+  <si>
+    <t>Muesli flakes</t>
+  </si>
+  <si>
+    <t>Yam or Indian potatoes</t>
+  </si>
+  <si>
+    <t>Cane molasses</t>
+  </si>
+  <si>
+    <t>Fructose</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Pop corn</t>
+  </si>
+  <si>
+    <t>Cakes</t>
+  </si>
+  <si>
+    <t>Milk chocolate</t>
+  </si>
+  <si>
+    <t>White chocolate</t>
+  </si>
+  <si>
+    <t>Soybean Tofu</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Fish oil</t>
+  </si>
+  <si>
+    <t>Maize flour</t>
+  </si>
+  <si>
+    <t>Rice flour</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Cream cheese</t>
+  </si>
+  <si>
+    <t>Dairy drink</t>
+  </si>
+  <si>
+    <t>Greek yogurt</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Chervil</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Horseradish</t>
+  </si>
+  <si>
+    <t>Marjoram</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Molokhia powder</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>Tarragon</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Ice cream</t>
+  </si>
+  <si>
+    <t>Frozen yogurt</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Dulce de leche</t>
+  </si>
+  <si>
+    <t>Marmalade</t>
+  </si>
+  <si>
+    <t>Vegetable fat</t>
+  </si>
+  <si>
+    <t>Tomato sauce for pizza base</t>
+  </si>
+  <si>
+    <t>Cream sauce for pizza base</t>
+  </si>
+  <si>
+    <t>Gelatine</t>
+  </si>
+  <si>
+    <t>Miso</t>
+  </si>
+  <si>
+    <t>Oat bran</t>
+  </si>
+  <si>
+    <t>Rice bran</t>
+  </si>
+  <si>
+    <t>Sodium carbonate</t>
+  </si>
+  <si>
+    <t>Soy lecithin</t>
+  </si>
+  <si>
+    <t>Tempeh</t>
+  </si>
+  <si>
+    <t>Candies, all types</t>
+  </si>
+  <si>
+    <t>Macadamia</t>
+  </si>
+  <si>
+    <t>Pecan</t>
+  </si>
+  <si>
+    <t>Soybean, whole grain</t>
+  </si>
+  <si>
+    <t>Canola seeds</t>
+  </si>
+  <si>
+    <t>Chicken fat</t>
+  </si>
+  <si>
+    <t>Duck fat</t>
+  </si>
+  <si>
+    <t>Goose fat</t>
+  </si>
+  <si>
+    <t>Lard or pork fat</t>
+  </si>
+  <si>
+    <t>Turkey fat</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Asian noodles</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>French fries</t>
+  </si>
+  <si>
+    <t>Plantain banana</t>
+  </si>
+  <si>
+    <t>Tapioca</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Sea salt</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>Aioli sauce</t>
+  </si>
+  <si>
+    <t>Bechamel sauce</t>
+  </si>
+  <si>
+    <t>Humus</t>
+  </si>
+  <si>
+    <t>Salad dressing</t>
+  </si>
+  <si>
+    <t>Soy sauce</t>
+  </si>
+  <si>
+    <t>Sweet and sour sauce</t>
+  </si>
+  <si>
+    <t>Pesto</t>
+  </si>
+  <si>
+    <t>Tartare sauce</t>
+  </si>
+  <si>
+    <t>Tomato sauce</t>
+  </si>
+  <si>
+    <t>Wakame</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Sea lettuce</t>
+  </si>
+  <si>
+    <t>Spirulina</t>
+  </si>
+  <si>
+    <t>Tangle</t>
+  </si>
+  <si>
+    <t>Sea thong</t>
+  </si>
+  <si>
+    <t>Laver</t>
+  </si>
+  <si>
+    <t>Black pepper</t>
+  </si>
+  <si>
+    <t>Caraway</t>
+  </si>
+  <si>
+    <t>Cardamom</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>Curry powder</t>
+  </si>
+  <si>
+    <t>Fennel seed</t>
+  </si>
+  <si>
+    <t>Fenugreek seed</t>
+  </si>
+  <si>
+    <t>Ginger powder</t>
+  </si>
+  <si>
+    <t>Ginger raw</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Avocado oil</t>
+  </si>
+  <si>
+    <t>Hazelnut oil</t>
+  </si>
+  <si>
+    <t>Linseed oil</t>
+  </si>
+  <si>
+    <t>Sesame oil</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Brussels sprout</t>
+  </si>
+  <si>
+    <t>Cardoon</t>
+  </si>
+  <si>
+    <t>Chilli pepper</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Squash</t>
+  </si>
+  <si>
+    <t>Sweet corn</t>
+  </si>
+  <si>
+    <t>Sweet pepper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -783,15 +1741,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -819,18 +1769,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,14 +1795,14 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Paula Alejandra Barco Alzate" id="{AB9F2C78-F908-4EF9-81DF-718C3C6D9058}" userId="S::paulaab@ntnu.no::3ae1caa8-d43c-428a-a1a9-efca45cf9ad4" providerId="AD"/>
+  <person displayName="Paula Alejandra Barco Alzate" id="{64D3689C-338C-4568-96B9-F1729FC6EA9F}" userId="S::paulaab@ntnu.no::3ae1caa8-d43c-428a-a1a9-efca45cf9ad4" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -863,39 +1810,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -947,7 +1894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -999,7 +1946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,13 +2005,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1073,6 +2013,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1137,11 +2084,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1149,2497 +2116,5788 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A182" dT="2024-02-15T15:40:06.04" personId="{AB9F2C78-F908-4EF9-81DF-718C3C6D9058}" id="{F7FF18D2-F37B-4C55-B39F-7D0972B99644}">
+  <threadedComment ref="A341" dT="2024-02-15T15:40:06.04" personId="{64D3689C-338C-4568-96B9-F1729FC6EA9F}" id="{5D4D25B5-C345-46DC-84D3-31D475B54D0B}">
     <text>Includes  Brook trout, brown trout, rainbow trout, large and small</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77A39B-9970-4BF3-969B-10802A240C53}">
-  <dimension ref="A1:D201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BBE4D-6498-4C5B-A955-41E545710FA7}">
+  <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>434</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>506</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>508</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>408</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>410</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>546</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>548</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>549</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>551</v>
       </c>
       <c r="B140" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>507</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>552</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>203</v>
+        <v>553</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>554</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>555</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C161" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>393</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>398</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>402</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="B188" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B192" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="B193" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="C196" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>173</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>382</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>383</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>385</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>392</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>388</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>175</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>386</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>389</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>176</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>178</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>179</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>180</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>181</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>182</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>377</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>378</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>459</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>462</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>461</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>186</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>187</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>299</v>
+      </c>
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>300</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>301</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>302</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>303</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>304</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>306</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>307</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>308</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>309</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>310</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>311</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>312</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>313</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>315</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>316</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>317</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>318</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>319</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>320</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>321</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>322</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>323</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>324</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>325</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>326</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>327</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>328</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>329</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>330</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>331</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>332</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>333</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>334</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>335</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>336</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>337</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>338</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>339</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>340</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>341</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>342</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>343</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>344</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>345</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>346</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>347</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>348</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>349</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>350</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>351</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>355</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>356</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>374</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>357</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>358</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>359</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>360</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>361</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>362</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>363</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>364</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>365</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>366</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>367</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>368</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>369</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>370</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>376</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>371</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>375</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>372</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>373</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>188</v>
+      </c>
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>379</v>
+      </c>
+      <c r="B313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>380</v>
+      </c>
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>381</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>189</v>
+      </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>190</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>191</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>192</v>
+      </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>193</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>194</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>195</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>196</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>197</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>198</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>199</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>200</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>201</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>202</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>203</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>204</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>205</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>206</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>207</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>208</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>209</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>210</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>211</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>212</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>213</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>214</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>232</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>231</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>230</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>215</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>216</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>217</v>
       </c>
-      <c r="B201" t="s">
-        <v>217</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>218</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>219</v>
       </c>
+      <c r="B349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>279</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>272</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>259</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>278</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>289</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>220</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>503</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>504</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>505</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>440</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>441</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>442</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>439</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>447</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>221</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>542</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>543</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>544</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>545</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D369"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>456</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>222</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>223</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>445</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>481</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>482</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>480</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>449</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>450</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D380"/>
+    </row>
+    <row r="381" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D381"/>
+    </row>
+    <row r="382" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D382"/>
+    </row>
+    <row r="383" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D383"/>
+    </row>
+    <row r="384" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D384"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>224</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>225</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>452</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>453</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>454</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>455</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>511</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>512</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>513</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>514</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>515</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>516</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>517</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>518</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>519</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>520</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>484</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>485</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>463</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>464</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>465</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>466</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>116</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>467</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>468</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>469</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>471</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>470</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>472</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>473</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>474</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>475</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>476</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>477</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>486</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>487</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>488</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>489</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>490</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>491</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>492</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>509</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>510</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>528</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>529</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>530</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>531</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>532</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>533</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>534</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>535</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>536</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>537</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>538</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>539</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>540</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>541</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>498</v>
+      </c>
+      <c r="B443" t="s">
+        <v>4</v>
+      </c>
+      <c r="C443" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>499</v>
+      </c>
+      <c r="B444" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>500</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>501</v>
+      </c>
+      <c r="B446" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>502</v>
+      </c>
+      <c r="B447" t="s">
+        <v>4</v>
+      </c>
+      <c r="C447" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>3</v>
+      </c>
+      <c r="B448" t="s">
+        <v>3</v>
+      </c>
+      <c r="C448" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>2</v>
+      </c>
+      <c r="C449" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>227</v>
+      </c>
+      <c r="B450" t="s">
+        <v>2</v>
+      </c>
+      <c r="C450" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>228</v>
+      </c>
+      <c r="B451" t="s">
+        <v>2</v>
+      </c>
+      <c r="C451" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>233</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>234</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>235</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1</v>
+      </c>
+      <c r="C455" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>283</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1</v>
+      </c>
+      <c r="C456" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>236</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1</v>
+      </c>
+      <c r="C457" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>237</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1</v>
+      </c>
+      <c r="C458" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>238</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>239</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>240</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>241</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>242</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>243</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>244</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1</v>
+      </c>
+      <c r="C465" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>245</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>246</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>247</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1</v>
+      </c>
+      <c r="C468" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>248</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>249</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>250</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1</v>
+      </c>
+      <c r="C471" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>251</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>252</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>253</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>254</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>255</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>256</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>257</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>258</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>259</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>260</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1</v>
+      </c>
+      <c r="C481" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>261</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1</v>
+      </c>
+      <c r="C482" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>262</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>263</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>264</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>265</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1</v>
+      </c>
+      <c r="C486" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>266</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1</v>
+      </c>
+      <c r="C487" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>267</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>268</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1</v>
+      </c>
+      <c r="C489" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>269</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1</v>
+      </c>
+      <c r="C490" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>270</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1</v>
+      </c>
+      <c r="C491" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>281</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1</v>
+      </c>
+      <c r="C492" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>280</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1</v>
+      </c>
+      <c r="C493" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>271</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1</v>
+      </c>
+      <c r="C494" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>282</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1</v>
+      </c>
+      <c r="C495" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>273</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1</v>
+      </c>
+      <c r="C496" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>274</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1</v>
+      </c>
+      <c r="C497" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>275</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1</v>
+      </c>
+      <c r="C498" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>276</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1</v>
+      </c>
+      <c r="C499" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>277</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1</v>
+      </c>
+      <c r="C500" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>284</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1</v>
+      </c>
+      <c r="C501" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>285</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1</v>
+      </c>
+      <c r="C502" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>286</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1</v>
+      </c>
+      <c r="C503" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>287</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1</v>
+      </c>
+      <c r="C504" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>288</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1</v>
+      </c>
+      <c r="C505" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>290</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1</v>
+      </c>
+      <c r="C506" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>292</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1</v>
+      </c>
+      <c r="C507" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>293</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1</v>
+      </c>
+      <c r="C508" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>291</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1</v>
+      </c>
+      <c r="C509" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>294</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1</v>
+      </c>
+      <c r="C510" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>295</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1</v>
+      </c>
+      <c r="C511" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>296</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1</v>
+      </c>
+      <c r="C512" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>297</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1</v>
+      </c>
+      <c r="C513" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>230</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1</v>
+      </c>
+      <c r="C514" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>298</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1</v>
+      </c>
+      <c r="C515" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C516" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>522</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C517" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>527</v>
+      </c>
+      <c r="B518" t="s">
+        <v>0</v>
+      </c>
+      <c r="C518" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>521</v>
+      </c>
+      <c r="B519" t="s">
+        <v>0</v>
+      </c>
+      <c r="C519" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>523</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+      <c r="C520" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>526</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+      <c r="C521" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>524</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>525</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+      <c r="C523" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B201" xr:uid="{1D77A39B-9970-4BF3-969B-10802A240C53}"/>
-  <hyperlinks>
-    <hyperlink ref="D73" r:id="rId1" location=":~:text=Both%20onion%20and%20garlic%20are%20from%20the%20allium,of%20vegetables%2C%20which%20includes%20leeks%2C%20chives%2C%20and%20scallions." xr:uid="{3E0ABA0C-156F-40DF-9E77-998E3873F0C0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b18a7274-bee0-4d90-977e-03ffce9a4b26" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100708FF3E9C60A324CBEC6E28166BB5B43" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f63406b515ad608adde94414846ecd1f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b18a7274-bee0-4d90-977e-03ffce9a4b26" xmlns:ns4="0523f8d8-9c58-4652-824f-d5b5e3de8ac3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cfc20a219861060b60455e8b0c08401" ns3:_="" ns4:_="">
-    <xsd:import namespace="b18a7274-bee0-4d90-977e-03ffce9a4b26"/>
-    <xsd:import namespace="0523f8d8-9c58-4652-824f-d5b5e3de8ac3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b18a7274-bee0-4d90-977e-03ffce9a4b26" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="14" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0523f8d8-9c58-4652-824f-d5b5e3de8ac3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{996C3A52-1456-47F8-A81C-71953C99487B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b18a7274-bee0-4d90-977e-03ffce9a4b26"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0523f8d8-9c58-4652-824f-d5b5e3de8ac3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39AD73BF-340A-4733-BDC3-20599A12C17B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10345AEA-2224-467B-B226-B5BB116F3F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b18a7274-bee0-4d90-977e-03ffce9a4b26"/>
-    <ds:schemaRef ds:uri="0523f8d8-9c58-4652-824f-d5b5e3de8ac3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/interim/ingredient_foogroup.xlsx
+++ b/data/interim/ingredient_foogroup.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\Python basics\Project_V3\Python stuff\Thesis2024\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F94252E-0AB1-4B96-BDE4-CA7A114F16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE3BD29E-CB4C-4573-995E-39C48F09266D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,17 +35,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={5D4D25B5-C345-46DC-84D3-31D475B54D0B}</author>
   </authors>
   <commentList>
-    <comment ref="A341" authorId="0" shapeId="0" xr:uid="{5D4D25B5-C345-46DC-84D3-31D475B54D0B}">
+    <comment ref="A343" authorId="0" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Includes  Brook trout, brown trout, rainbow trout, large and small</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="570">
   <si>
     <t>Aquatic Plants</t>
   </si>
@@ -1723,13 +1730,55 @@
   </si>
   <si>
     <t>Sweet pepper</t>
+  </si>
+  <si>
+    <t>Coconut milk</t>
+  </si>
+  <si>
+    <t>Nutritional yeast</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>PA based on SHARPID</t>
+  </si>
+  <si>
+    <t>Broth vegetables</t>
+  </si>
+  <si>
+    <t>Broth beef</t>
+  </si>
+  <si>
+    <t>Broth poultry</t>
+  </si>
+  <si>
+    <t>Tomate paste</t>
+  </si>
+  <si>
+    <t>Rutabaga</t>
+  </si>
+  <si>
+    <t>Cheese from Buffalo milk</t>
+  </si>
+  <si>
+    <t>Cheese from Cow milk</t>
+  </si>
+  <si>
+    <t>Cheese from Sheep milk</t>
+  </si>
+  <si>
+    <t>Cheese from Goat milk</t>
+  </si>
+  <si>
+    <t>Sugar from beet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,10 +1821,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2123,21 +2173,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BBE4D-6498-4C5B-A955-41E545710FA7}">
-  <dimension ref="A1:D523"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2148,7 +2198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2159,7 +2209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2170,7 +2220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -2203,7 +2253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2214,7 +2264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2225,7 +2275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>419</v>
       </c>
@@ -2236,7 +2286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -2247,7 +2297,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>421</v>
       </c>
@@ -2258,7 +2308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -2269,7 +2319,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>423</v>
       </c>
@@ -2280,7 +2330,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -2291,7 +2341,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>424</v>
       </c>
@@ -2302,7 +2352,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>425</v>
       </c>
@@ -2313,7 +2363,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>426</v>
       </c>
@@ -2324,7 +2374,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>427</v>
       </c>
@@ -2335,7 +2385,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>428</v>
       </c>
@@ -2346,7 +2396,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>429</v>
       </c>
@@ -2357,7 +2407,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>430</v>
       </c>
@@ -2368,7 +2418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>431</v>
       </c>
@@ -2379,7 +2429,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>432</v>
       </c>
@@ -2390,7 +2440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>433</v>
       </c>
@@ -2401,7 +2451,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>434</v>
       </c>
@@ -2412,7 +2462,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>435</v>
       </c>
@@ -2423,7 +2473,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>436</v>
       </c>
@@ -2434,7 +2484,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>437</v>
       </c>
@@ -2445,7 +2495,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2456,7 +2506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>457</v>
       </c>
@@ -2467,7 +2517,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2478,7 +2528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2489,7 +2539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2500,7 +2550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2511,7 +2561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2522,7 +2572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2533,7 +2583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2544,7 +2594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2555,7 +2605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>412</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>413</v>
       </c>
@@ -2577,7 +2627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>414</v>
       </c>
@@ -2588,7 +2638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>415</v>
       </c>
@@ -2599,7 +2649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -2610,7 +2660,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>417</v>
       </c>
@@ -2621,7 +2671,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>418</v>
       </c>
@@ -2632,7 +2682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -2643,7 +2693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>458</v>
       </c>
@@ -2654,7 +2704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2665,7 +2715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2676,7 +2726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2687,7 +2737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2698,7 +2748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2709,7 +2759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>443</v>
       </c>
@@ -2720,7 +2770,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>506</v>
       </c>
@@ -2731,7 +2781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -2742,7 +2792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>508</v>
       </c>
@@ -2753,7 +2803,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2764,7 +2814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2775,7 +2825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>444</v>
       </c>
@@ -2786,9 +2836,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>569</v>
       </c>
       <c r="B60" t="s">
         <v>43</v>
@@ -2797,7 +2847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2808,7 +2858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -2819,7 +2869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -2830,7 +2880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -2841,7 +2891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2852,7 +2902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -2863,7 +2913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -2874,7 +2924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -2885,7 +2935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -2896,7 +2946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -2907,7 +2957,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>408</v>
       </c>
@@ -2918,7 +2968,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>409</v>
       </c>
@@ -2929,7 +2979,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>410</v>
       </c>
@@ -2940,7 +2990,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>411</v>
       </c>
@@ -2951,7 +3001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -2962,7 +3012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -2973,7 +3023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -2984,7 +3034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -2995,7 +3045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3006,7 +3056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -3017,7 +3067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -3028,7 +3078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3039,7 +3089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>494</v>
       </c>
@@ -3050,7 +3100,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>495</v>
       </c>
@@ -3061,7 +3111,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -3072,7 +3122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -3083,31 +3133,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>556</v>
+      </c>
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>451</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>37</v>
       </c>
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>96</v>
-      </c>
-      <c r="B88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>496</v>
       </c>
       <c r="B89" t="s">
         <v>36</v>
@@ -3116,20 +3166,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>97</v>
-      </c>
-      <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>98</v>
       </c>
       <c r="B91" t="s">
         <v>35</v>
@@ -3138,20 +3188,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>34</v>
@@ -3160,20 +3210,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>497</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>33</v>
@@ -3182,9 +3232,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
@@ -3193,9 +3243,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -3204,20 +3254,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>104</v>
-      </c>
-      <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
@@ -3226,9 +3276,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
         <v>32</v>
@@ -3237,9 +3287,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
         <v>32</v>
@@ -3248,9 +3298,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
         <v>32</v>
@@ -3259,20 +3309,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>31</v>
-      </c>
-      <c r="B103" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>109</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -3281,9 +3331,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
         <v>31</v>
@@ -3292,9 +3342,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
         <v>31</v>
@@ -3303,9 +3353,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
@@ -3314,20 +3364,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>113</v>
-      </c>
-      <c r="B108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
@@ -3336,9 +3386,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
@@ -3347,20 +3397,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>117</v>
-      </c>
-      <c r="B111" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>29</v>
@@ -3369,9 +3419,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>29</v>
@@ -3380,9 +3430,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>29</v>
@@ -3391,20 +3441,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>121</v>
-      </c>
-      <c r="B115" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -3413,9 +3463,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
         <v>28</v>
@@ -3424,9 +3474,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
         <v>28</v>
@@ -3435,9 +3485,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -3446,9 +3496,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>28</v>
@@ -3457,20 +3507,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>127</v>
-      </c>
-      <c r="B121" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>27</v>
@@ -3479,9 +3529,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
         <v>27</v>
@@ -3490,9 +3540,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
         <v>27</v>
@@ -3501,9 +3551,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
         <v>27</v>
@@ -3512,9 +3562,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>27</v>
@@ -3523,20 +3573,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>564</v>
       </c>
       <c r="B127" t="s">
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
         <v>27</v>
@@ -3545,9 +3595,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
         <v>27</v>
@@ -3556,9 +3606,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
         <v>27</v>
@@ -3567,9 +3617,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
         <v>27</v>
@@ -3578,9 +3628,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
         <v>27</v>
@@ -3589,9 +3639,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
@@ -3600,9 +3650,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
@@ -3611,20 +3661,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>546</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
         <v>27</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B136" t="s">
         <v>27</v>
@@ -3633,9 +3683,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B137" t="s">
         <v>27</v>
@@ -3644,9 +3694,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B138" t="s">
         <v>27</v>
@@ -3655,9 +3705,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B139" t="s">
         <v>27</v>
@@ -3666,9 +3716,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B140" t="s">
         <v>27</v>
@@ -3677,9 +3727,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="B141" t="s">
         <v>27</v>
@@ -3688,9 +3738,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
@@ -3699,9 +3749,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -3710,9 +3760,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
@@ -3721,9 +3771,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
@@ -3732,31 +3782,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>558</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
         <v>140</v>
-      </c>
-      <c r="B146" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>141</v>
-      </c>
-      <c r="B147" t="s">
-        <v>26</v>
-      </c>
-      <c r="C147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>142</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
@@ -3765,9 +3815,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
@@ -3776,9 +3826,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s">
         <v>26</v>
@@ -3787,9 +3837,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B151" t="s">
         <v>26</v>
@@ -3798,9 +3848,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B152" t="s">
         <v>26</v>
@@ -3809,9 +3859,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B153" t="s">
         <v>26</v>
@@ -3820,53 +3870,53 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
         <v>25</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>25</v>
       </c>
-      <c r="C154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C156" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
         <v>24</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
         <v>24</v>
       </c>
-      <c r="C155" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C157" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
         <v>148</v>
-      </c>
-      <c r="B156" t="s">
-        <v>23</v>
-      </c>
-      <c r="C156" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>149</v>
-      </c>
-      <c r="B157" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>150</v>
       </c>
       <c r="B158" t="s">
         <v>23</v>
@@ -3875,31 +3925,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="B159" t="s">
         <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="B160" t="s">
         <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B161" t="s">
         <v>23</v>
@@ -3908,9 +3958,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B162" t="s">
         <v>23</v>
@@ -3919,9 +3969,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B163" t="s">
         <v>23</v>
@@ -3930,31 +3980,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>406</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
         <v>151</v>
-      </c>
-      <c r="B164" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>152</v>
-      </c>
-      <c r="B165" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>22</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
@@ -3963,9 +4013,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -3974,31 +4024,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>153</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
         <v>154</v>
-      </c>
-      <c r="B168" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>155</v>
-      </c>
-      <c r="B169" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>156</v>
       </c>
       <c r="B170" t="s">
         <v>21</v>
@@ -4007,9 +4057,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B171" t="s">
         <v>21</v>
@@ -4018,9 +4068,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
         <v>21</v>
@@ -4029,9 +4079,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B173" t="s">
         <v>21</v>
@@ -4040,20 +4090,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
         <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
         <v>21</v>
@@ -4062,20 +4112,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="B176" t="s">
         <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B177" t="s">
         <v>21</v>
@@ -4084,9 +4134,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B178" t="s">
         <v>21</v>
@@ -4095,9 +4145,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
         <v>21</v>
@@ -4106,31 +4156,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>396</v>
+        <v>163</v>
       </c>
       <c r="B180" t="s">
         <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>398</v>
+        <v>164</v>
       </c>
       <c r="B181" t="s">
         <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
         <v>21</v>
@@ -4139,9 +4189,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
@@ -4150,9 +4200,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
@@ -4161,9 +4211,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B185" t="s">
         <v>21</v>
@@ -4172,9 +4222,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B186" t="s">
         <v>21</v>
@@ -4183,9 +4233,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B187" t="s">
         <v>21</v>
@@ -4194,9 +4244,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
@@ -4205,86 +4255,86 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>405</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>407</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
         <v>165</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B191" t="s">
         <v>20</v>
       </c>
-      <c r="C189" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>20</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>20</v>
       </c>
-      <c r="C190" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
         <v>166</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B193" t="s">
         <v>19</v>
       </c>
-      <c r="C191" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C193" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
         <v>167</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B194" t="s">
         <v>19</v>
       </c>
-      <c r="C192" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C194" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
         <v>168</v>
-      </c>
-      <c r="B193" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>384</v>
-      </c>
-      <c r="B194" t="s">
-        <v>18</v>
-      </c>
-      <c r="C194" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>391</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B196" t="s">
         <v>18</v>
@@ -4293,9 +4343,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
         <v>18</v>
@@ -4304,42 +4354,42 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>387</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
         <v>169</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B200" t="s">
         <v>17</v>
       </c>
-      <c r="C198" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C200" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>170</v>
-      </c>
-      <c r="B199" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>171</v>
-      </c>
-      <c r="B200" t="s">
-        <v>16</v>
-      </c>
-      <c r="C200" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>172</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -4348,9 +4398,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
@@ -4359,42 +4409,42 @@
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>174</v>
-      </c>
-      <c r="B203" t="s">
-        <v>15</v>
-      </c>
-      <c r="C203" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>382</v>
-      </c>
-      <c r="B204" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>383</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
@@ -4403,9 +4453,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
@@ -4414,9 +4464,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -4425,64 +4475,64 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>392</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>388</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
         <v>175</v>
-      </c>
-      <c r="B209" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>386</v>
-      </c>
-      <c r="B210" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>389</v>
       </c>
       <c r="B211" t="s">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="B212" t="s">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="B213" t="s">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B214" t="s">
         <v>14</v>
@@ -4491,31 +4541,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>178</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
         <v>179</v>
-      </c>
-      <c r="B215" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>180</v>
-      </c>
-      <c r="B216" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>181</v>
       </c>
       <c r="B217" t="s">
         <v>13</v>
@@ -4524,9 +4574,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B218" t="s">
         <v>13</v>
@@ -4535,31 +4585,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="B219" t="s">
         <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>459</v>
+        <v>377</v>
       </c>
       <c r="B221" t="s">
         <v>13</v>
@@ -4568,9 +4618,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>462</v>
+        <v>378</v>
       </c>
       <c r="B222" t="s">
         <v>13</v>
@@ -4579,9 +4629,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B223" t="s">
         <v>13</v>
@@ -4590,31 +4640,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>179</v>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>462</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>180</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>461</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>181</v>
+        <v>565</v>
       </c>
       <c r="B226" t="s">
         <v>12</v>
@@ -4623,9 +4673,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>182</v>
+        <v>566</v>
       </c>
       <c r="B227" t="s">
         <v>12</v>
@@ -4634,966 +4684,966 @@
         <v>56</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B228" t="s">
-        <v>12</v>
-      </c>
-      <c r="C228" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
         <v>184</v>
       </c>
-      <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
         <v>185</v>
       </c>
-      <c r="B230" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
         <v>186</v>
       </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>187</v>
       </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B234" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>460</v>
       </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
         <v>299</v>
       </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
         <v>300</v>
       </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
         <v>301</v>
       </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
         <v>302</v>
       </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
         <v>303</v>
       </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
         <v>304</v>
       </c>
-      <c r="B239" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>305</v>
       </c>
-      <c r="B240" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
         <v>306</v>
       </c>
-      <c r="B241" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
         <v>307</v>
       </c>
-      <c r="B242" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
         <v>308</v>
       </c>
-      <c r="B243" t="s">
-        <v>12</v>
-      </c>
-      <c r="C243" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
         <v>314</v>
       </c>
-      <c r="B244" t="s">
-        <v>12</v>
-      </c>
-      <c r="C244" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
         <v>309</v>
       </c>
-      <c r="B245" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
         <v>310</v>
       </c>
-      <c r="B246" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
         <v>311</v>
       </c>
-      <c r="B247" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>312</v>
       </c>
-      <c r="B248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
         <v>313</v>
       </c>
-      <c r="B249" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
         <v>315</v>
       </c>
-      <c r="B250" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
         <v>316</v>
       </c>
-      <c r="B251" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
         <v>317</v>
       </c>
-      <c r="B252" t="s">
-        <v>12</v>
-      </c>
-      <c r="C252" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
         <v>318</v>
       </c>
-      <c r="B253" t="s">
-        <v>12</v>
-      </c>
-      <c r="C253" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
         <v>319</v>
       </c>
-      <c r="B254" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
         <v>320</v>
       </c>
-      <c r="B255" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
         <v>321</v>
       </c>
-      <c r="B256" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
         <v>322</v>
       </c>
-      <c r="B257" t="s">
-        <v>12</v>
-      </c>
-      <c r="C257" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
         <v>323</v>
       </c>
-      <c r="B258" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
         <v>324</v>
       </c>
-      <c r="B259" t="s">
-        <v>12</v>
-      </c>
-      <c r="C259" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
         <v>325</v>
       </c>
-      <c r="B260" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
         <v>326</v>
       </c>
-      <c r="B261" t="s">
-        <v>12</v>
-      </c>
-      <c r="C261" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
         <v>327</v>
       </c>
-      <c r="B262" t="s">
-        <v>12</v>
-      </c>
-      <c r="C262" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
         <v>328</v>
       </c>
-      <c r="B263" t="s">
-        <v>12</v>
-      </c>
-      <c r="C263" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
         <v>329</v>
       </c>
-      <c r="B264" t="s">
-        <v>12</v>
-      </c>
-      <c r="C264" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
         <v>330</v>
       </c>
-      <c r="B265" t="s">
-        <v>12</v>
-      </c>
-      <c r="C265" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
         <v>331</v>
       </c>
-      <c r="B266" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
         <v>332</v>
       </c>
-      <c r="B267" t="s">
-        <v>12</v>
-      </c>
-      <c r="C267" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
         <v>333</v>
       </c>
-      <c r="B268" t="s">
-        <v>12</v>
-      </c>
-      <c r="C268" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
         <v>334</v>
       </c>
-      <c r="B269" t="s">
-        <v>12</v>
-      </c>
-      <c r="C269" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
         <v>335</v>
       </c>
-      <c r="B270" t="s">
-        <v>12</v>
-      </c>
-      <c r="C270" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
         <v>336</v>
       </c>
-      <c r="B271" t="s">
-        <v>12</v>
-      </c>
-      <c r="C271" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
         <v>337</v>
       </c>
-      <c r="B272" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
         <v>338</v>
       </c>
-      <c r="B273" t="s">
-        <v>12</v>
-      </c>
-      <c r="C273" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
         <v>339</v>
       </c>
-      <c r="B274" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
         <v>340</v>
       </c>
-      <c r="B275" t="s">
-        <v>12</v>
-      </c>
-      <c r="C275" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
         <v>341</v>
       </c>
-      <c r="B276" t="s">
-        <v>12</v>
-      </c>
-      <c r="C276" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
         <v>342</v>
       </c>
-      <c r="B277" t="s">
-        <v>12</v>
-      </c>
-      <c r="C277" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
         <v>343</v>
       </c>
-      <c r="B278" t="s">
-        <v>12</v>
-      </c>
-      <c r="C278" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
         <v>344</v>
       </c>
-      <c r="B279" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
         <v>345</v>
       </c>
-      <c r="B280" t="s">
-        <v>12</v>
-      </c>
-      <c r="C280" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
         <v>346</v>
       </c>
-      <c r="B281" t="s">
-        <v>12</v>
-      </c>
-      <c r="C281" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
         <v>347</v>
       </c>
-      <c r="B282" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
         <v>348</v>
       </c>
-      <c r="B283" t="s">
-        <v>12</v>
-      </c>
-      <c r="C283" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
         <v>349</v>
       </c>
-      <c r="B284" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
         <v>350</v>
       </c>
-      <c r="B285" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
         <v>351</v>
       </c>
-      <c r="B286" t="s">
-        <v>12</v>
-      </c>
-      <c r="C286" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B287" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B288" t="s">
-        <v>12</v>
-      </c>
-      <c r="C288" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B289" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
         <v>355</v>
       </c>
-      <c r="B290" t="s">
-        <v>12</v>
-      </c>
-      <c r="C290" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
         <v>356</v>
       </c>
-      <c r="B291" t="s">
-        <v>12</v>
-      </c>
-      <c r="C291" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
         <v>374</v>
       </c>
-      <c r="B292" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
         <v>357</v>
       </c>
-      <c r="B293" t="s">
-        <v>12</v>
-      </c>
-      <c r="C293" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
         <v>358</v>
       </c>
-      <c r="B294" t="s">
-        <v>12</v>
-      </c>
-      <c r="C294" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
         <v>359</v>
       </c>
-      <c r="B295" t="s">
-        <v>12</v>
-      </c>
-      <c r="C295" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
         <v>360</v>
       </c>
-      <c r="B296" t="s">
-        <v>12</v>
-      </c>
-      <c r="C296" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
         <v>361</v>
       </c>
-      <c r="B297" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
         <v>362</v>
       </c>
-      <c r="B298" t="s">
-        <v>12</v>
-      </c>
-      <c r="C298" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
         <v>363</v>
       </c>
-      <c r="B299" t="s">
-        <v>12</v>
-      </c>
-      <c r="C299" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
         <v>364</v>
       </c>
-      <c r="B300" t="s">
-        <v>12</v>
-      </c>
-      <c r="C300" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
         <v>365</v>
       </c>
-      <c r="B301" t="s">
-        <v>12</v>
-      </c>
-      <c r="C301" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
         <v>366</v>
       </c>
-      <c r="B302" t="s">
-        <v>12</v>
-      </c>
-      <c r="C302" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
         <v>367</v>
       </c>
-      <c r="B303" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
         <v>368</v>
       </c>
-      <c r="B304" t="s">
-        <v>12</v>
-      </c>
-      <c r="C304" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
         <v>369</v>
       </c>
-      <c r="B305" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
         <v>370</v>
       </c>
-      <c r="B306" t="s">
-        <v>12</v>
-      </c>
-      <c r="C306" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
         <v>376</v>
       </c>
-      <c r="B307" t="s">
-        <v>12</v>
-      </c>
-      <c r="C307" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
         <v>371</v>
       </c>
-      <c r="B308" t="s">
-        <v>12</v>
-      </c>
-      <c r="C308" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
         <v>375</v>
       </c>
-      <c r="B309" t="s">
-        <v>12</v>
-      </c>
-      <c r="C309" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
         <v>372</v>
       </c>
-      <c r="B310" t="s">
-        <v>12</v>
-      </c>
-      <c r="C310" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
         <v>373</v>
       </c>
-      <c r="B311" t="s">
-        <v>12</v>
-      </c>
-      <c r="C311" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
         <v>188</v>
-      </c>
-      <c r="B312" t="s">
-        <v>11</v>
-      </c>
-      <c r="C312" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>379</v>
-      </c>
-      <c r="B313" t="s">
-        <v>11</v>
-      </c>
-      <c r="C313" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>380</v>
       </c>
       <c r="B314" t="s">
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B315" t="s">
         <v>11</v>
@@ -5602,31 +5652,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
+        <v>380</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>381</v>
+      </c>
+      <c r="B317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
         <v>189</v>
-      </c>
-      <c r="B316" t="s">
-        <v>10</v>
-      </c>
-      <c r="C316" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>190</v>
-      </c>
-      <c r="B317" t="s">
-        <v>10</v>
-      </c>
-      <c r="C317" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>191</v>
       </c>
       <c r="B318" t="s">
         <v>10</v>
@@ -5635,9 +5685,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B319" t="s">
         <v>10</v>
@@ -5646,9 +5696,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
@@ -5657,9 +5707,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B321" t="s">
         <v>10</v>
@@ -5668,9 +5718,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B322" t="s">
         <v>10</v>
@@ -5679,9 +5729,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B323" t="s">
         <v>10</v>
@@ -5690,9 +5740,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B324" t="s">
         <v>10</v>
@@ -5701,9 +5751,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B325" t="s">
         <v>10</v>
@@ -5712,9 +5762,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B326" t="s">
         <v>10</v>
@@ -5723,9 +5773,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B327" t="s">
         <v>10</v>
@@ -5734,9 +5784,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B328" t="s">
         <v>10</v>
@@ -5745,9 +5795,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
@@ -5756,9 +5806,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B330" t="s">
         <v>10</v>
@@ -5767,9 +5817,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B331" t="s">
         <v>10</v>
@@ -5778,9 +5828,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
@@ -5789,9 +5839,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B333" t="s">
         <v>10</v>
@@ -5800,9 +5850,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B334" t="s">
         <v>10</v>
@@ -5811,9 +5861,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B335" t="s">
         <v>10</v>
@@ -5822,9 +5872,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B336" t="s">
         <v>10</v>
@@ -5833,9 +5883,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B337" t="s">
         <v>10</v>
@@ -5844,9 +5894,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
@@ -5855,9 +5905,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B339" t="s">
         <v>10</v>
@@ -5866,9 +5916,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
@@ -5877,9 +5927,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
@@ -5888,31 +5938,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
       </c>
       <c r="C342" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
       </c>
       <c r="C343" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B344" t="s">
         <v>10</v>
@@ -5921,31 +5971,31 @@
         <v>229</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>231</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>230</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
         <v>215</v>
-      </c>
-      <c r="B345" t="s">
-        <v>9</v>
-      </c>
-      <c r="C345" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>216</v>
-      </c>
-      <c r="B346" t="s">
-        <v>9</v>
-      </c>
-      <c r="C346" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>217</v>
       </c>
       <c r="B347" t="s">
         <v>9</v>
@@ -5954,9 +6004,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B348" t="s">
         <v>9</v>
@@ -5965,9 +6015,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
@@ -5976,31 +6026,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B352" t="s">
         <v>9</v>
@@ -6009,9 +6059,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B353" t="s">
         <v>9</v>
@@ -6020,9 +6070,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B354" t="s">
         <v>9</v>
@@ -6031,42 +6081,42 @@
         <v>229</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
+        <v>278</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>289</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
         <v>220</v>
-      </c>
-      <c r="B355" t="s">
-        <v>8</v>
-      </c>
-      <c r="C355" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>503</v>
-      </c>
-      <c r="B356" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>504</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B358" t="s">
         <v>8</v>
@@ -6075,9 +6125,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="B359" t="s">
         <v>8</v>
@@ -6086,9 +6136,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="B360" t="s">
         <v>8</v>
@@ -6097,9 +6147,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
@@ -6108,9 +6158,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -6119,9 +6169,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
@@ -6130,20 +6180,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
       </c>
       <c r="C364" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="B365" t="s">
         <v>8</v>
@@ -6152,20 +6202,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>543</v>
+        <v>221</v>
       </c>
       <c r="B366" t="s">
         <v>8</v>
       </c>
       <c r="C366" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B367" t="s">
         <v>8</v>
@@ -6174,9 +6224,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -6185,98 +6235,97 @@
         <v>229</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>544</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>545</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="3" customFormat="1">
+      <c r="A371" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B371" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D369"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="C371" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="3" customFormat="1">
+      <c r="A372" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
         <v>7</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B373" t="s">
         <v>7</v>
       </c>
-      <c r="C370" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="C373" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
         <v>456</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B374" t="s">
         <v>7</v>
       </c>
-      <c r="C371" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="C374" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
         <v>222</v>
-      </c>
-      <c r="B372" t="s">
-        <v>6</v>
-      </c>
-      <c r="C372" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>223</v>
-      </c>
-      <c r="B373" t="s">
-        <v>6</v>
-      </c>
-      <c r="C373" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>445</v>
-      </c>
-      <c r="B374" t="s">
-        <v>6</v>
-      </c>
-      <c r="C374" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>481</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>482</v>
+        <v>223</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
       </c>
       <c r="C376" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -6285,9 +6334,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -6296,9 +6345,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -6307,45 +6356,42 @@
         <v>229</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>480</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>449</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>450</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="2" customFormat="1">
+      <c r="A383" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D380"/>
-    </row>
-    <row r="381" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D381"/>
-    </row>
-    <row r="382" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D382"/>
-    </row>
-    <row r="383" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>6</v>
@@ -6355,9 +6401,9 @@
       </c>
       <c r="D383"/>
     </row>
-    <row r="384" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" s="2" customFormat="1">
       <c r="A384" s="2" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>6</v>
@@ -6367,64 +6413,67 @@
       </c>
       <c r="D384"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="385" spans="1:4" s="2" customFormat="1">
+      <c r="A385" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D385"/>
+    </row>
+    <row r="386" spans="1:4" s="2" customFormat="1">
+      <c r="A386" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D386"/>
+    </row>
+    <row r="387" spans="1:4" s="2" customFormat="1">
+      <c r="A387" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D387"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
         <v>224</v>
-      </c>
-      <c r="B385" t="s">
-        <v>5</v>
-      </c>
-      <c r="C385" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>225</v>
-      </c>
-      <c r="B386" t="s">
-        <v>5</v>
-      </c>
-      <c r="C386" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>452</v>
-      </c>
-      <c r="B387" t="s">
-        <v>5</v>
-      </c>
-      <c r="C387" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>453</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>454</v>
+        <v>225</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
       </c>
       <c r="C389" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -6433,9 +6482,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -6444,9 +6493,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -6455,9 +6504,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -6466,9 +6515,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -6477,9 +6526,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -6488,9 +6537,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -6499,9 +6548,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -6510,9 +6559,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -6521,9 +6570,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -6532,9 +6581,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -6543,9 +6592,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -6554,9 +6603,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -6565,9 +6614,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>463</v>
+        <v>563</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -6576,9 +6625,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -6587,9 +6636,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -6598,9 +6647,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -6609,9 +6658,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>116</v>
+        <v>463</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -6620,9 +6669,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -6631,9 +6680,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
@@ -6642,9 +6691,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -6653,9 +6702,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>471</v>
+        <v>116</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -6664,9 +6713,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -6675,9 +6724,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -6686,9 +6735,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -6697,9 +6746,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -6708,9 +6757,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -6719,9 +6768,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -6730,9 +6779,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -6741,9 +6790,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -6752,9 +6801,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -6763,9 +6812,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -6774,9 +6823,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -6785,9 +6834,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -6796,9 +6845,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -6807,9 +6856,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -6818,9 +6867,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
@@ -6829,9 +6878,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -6840,9 +6889,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -6851,9 +6900,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -6862,9 +6911,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -6873,9 +6922,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -6884,9 +6933,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -6895,9 +6944,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -6906,9 +6955,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -6917,9 +6966,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -6928,9 +6977,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -6939,9 +6988,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
@@ -6950,9 +6999,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
@@ -6961,9 +7010,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -6972,9 +7021,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -6983,9 +7032,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -6994,207 +7043,207 @@
         <v>229</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>538</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>539</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>540</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>541</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>560</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>561</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>562</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
         <v>4</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B449" t="s">
         <v>4</v>
       </c>
-      <c r="C442" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="C449" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
         <v>498</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B450" t="s">
         <v>4</v>
       </c>
-      <c r="C443" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="C450" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
         <v>499</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B451" t="s">
         <v>4</v>
       </c>
-      <c r="C444" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="C451" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
         <v>500</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B452" t="s">
         <v>4</v>
       </c>
-      <c r="C445" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="C452" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
         <v>501</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B453" t="s">
         <v>4</v>
       </c>
-      <c r="C446" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="C453" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
         <v>502</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B454" t="s">
         <v>4</v>
       </c>
-      <c r="C447" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="C454" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
         <v>3</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B455" t="s">
         <v>3</v>
       </c>
-      <c r="C448" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="C455" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
         <v>226</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B456" t="s">
         <v>2</v>
       </c>
-      <c r="C449" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="C456" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
         <v>227</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B457" t="s">
         <v>2</v>
       </c>
-      <c r="C450" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="C457" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
         <v>228</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B458" t="s">
         <v>2</v>
       </c>
-      <c r="C451" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="C458" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
         <v>1</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1</v>
-      </c>
-      <c r="C452" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>233</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1</v>
-      </c>
-      <c r="C453" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>234</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1</v>
-      </c>
-      <c r="C454" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>235</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1</v>
-      </c>
-      <c r="C455" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>283</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1</v>
-      </c>
-      <c r="C456" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>236</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1</v>
-      </c>
-      <c r="C457" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>237</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1</v>
-      </c>
-      <c r="C458" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>238</v>
       </c>
       <c r="B459" t="s">
         <v>1</v>
       </c>
       <c r="C459" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B460" t="s">
         <v>1</v>
@@ -7203,9 +7252,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B461" t="s">
         <v>1</v>
@@ -7214,9 +7263,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B462" t="s">
         <v>1</v>
@@ -7225,9 +7274,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="B463" t="s">
         <v>1</v>
@@ -7236,9 +7285,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B464" t="s">
         <v>1</v>
@@ -7247,9 +7296,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B465" t="s">
         <v>1</v>
@@ -7258,9 +7307,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B466" t="s">
         <v>1</v>
@@ -7269,9 +7318,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B467" t="s">
         <v>1</v>
@@ -7280,9 +7329,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B468" t="s">
         <v>1</v>
@@ -7291,9 +7340,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B469" t="s">
         <v>1</v>
@@ -7302,9 +7351,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B470" t="s">
         <v>1</v>
@@ -7313,9 +7362,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B471" t="s">
         <v>1</v>
@@ -7324,9 +7373,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B472" t="s">
         <v>1</v>
@@ -7335,9 +7384,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B473" t="s">
         <v>1</v>
@@ -7346,9 +7395,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B474" t="s">
         <v>1</v>
@@ -7357,9 +7406,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B475" t="s">
         <v>1</v>
@@ -7368,9 +7417,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B476" t="s">
         <v>1</v>
@@ -7379,9 +7428,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B477" t="s">
         <v>1</v>
@@ -7390,9 +7439,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B478" t="s">
         <v>1</v>
@@ -7401,9 +7450,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B479" t="s">
         <v>1</v>
@@ -7412,9 +7461,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B480" t="s">
         <v>1</v>
@@ -7423,9 +7472,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B481" t="s">
         <v>1</v>
@@ -7434,9 +7483,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B482" t="s">
         <v>1</v>
@@ -7445,9 +7494,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B483" t="s">
         <v>1</v>
@@ -7456,9 +7505,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B484" t="s">
         <v>1</v>
@@ -7467,9 +7516,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B485" t="s">
         <v>1</v>
@@ -7478,9 +7527,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B486" t="s">
         <v>1</v>
@@ -7489,9 +7538,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B487" t="s">
         <v>1</v>
@@ -7500,9 +7549,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B488" t="s">
         <v>1</v>
@@ -7511,9 +7560,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B489" t="s">
         <v>1</v>
@@ -7522,9 +7571,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B490" t="s">
         <v>1</v>
@@ -7533,9 +7582,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B491" t="s">
         <v>1</v>
@@ -7544,9 +7593,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B492" t="s">
         <v>1</v>
@@ -7555,9 +7604,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B493" t="s">
         <v>1</v>
@@ -7566,9 +7615,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B494" t="s">
         <v>1</v>
@@ -7577,9 +7626,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B495" t="s">
         <v>1</v>
@@ -7588,9 +7637,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B496" t="s">
         <v>1</v>
@@ -7599,9 +7648,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B497" t="s">
         <v>1</v>
@@ -7610,9 +7659,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B498" t="s">
         <v>1</v>
@@ -7621,9 +7670,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B499" t="s">
         <v>1</v>
@@ -7632,9 +7681,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B500" t="s">
         <v>1</v>
@@ -7643,9 +7692,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B501" t="s">
         <v>1</v>
@@ -7654,9 +7703,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B502" t="s">
         <v>1</v>
@@ -7665,9 +7714,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B503" t="s">
         <v>1</v>
@@ -7676,9 +7725,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B504" t="s">
         <v>1</v>
@@ -7687,9 +7736,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B505" t="s">
         <v>1</v>
@@ -7698,9 +7747,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B506" t="s">
         <v>1</v>
@@ -7709,9 +7758,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B507" t="s">
         <v>1</v>
@@ -7720,9 +7769,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B508" t="s">
         <v>1</v>
@@ -7731,9 +7780,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B509" t="s">
         <v>1</v>
@@ -7742,9 +7791,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B510" t="s">
         <v>1</v>
@@ -7753,9 +7802,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B511" t="s">
         <v>1</v>
@@ -7764,9 +7813,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B512" t="s">
         <v>1</v>
@@ -7775,9 +7824,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B513" t="s">
         <v>1</v>
@@ -7786,9 +7835,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="B514" t="s">
         <v>1</v>
@@ -7797,9 +7846,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B515" t="s">
         <v>1</v>
@@ -7808,91 +7857,168 @@
         <v>229</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
+        <v>291</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1</v>
+      </c>
+      <c r="C516" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>294</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1</v>
+      </c>
+      <c r="C517" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>295</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1</v>
+      </c>
+      <c r="C518" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>296</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>297</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1</v>
+      </c>
+      <c r="C520" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>230</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1</v>
+      </c>
+      <c r="C521" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>298</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1</v>
+      </c>
+      <c r="C522" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
         <v>0</v>
-      </c>
-      <c r="B516" t="s">
-        <v>0</v>
-      </c>
-      <c r="C516" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>522</v>
-      </c>
-      <c r="B517" t="s">
-        <v>0</v>
-      </c>
-      <c r="C517" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>527</v>
-      </c>
-      <c r="B518" t="s">
-        <v>0</v>
-      </c>
-      <c r="C518" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>521</v>
-      </c>
-      <c r="B519" t="s">
-        <v>0</v>
-      </c>
-      <c r="C519" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>523</v>
-      </c>
-      <c r="B520" t="s">
-        <v>0</v>
-      </c>
-      <c r="C520" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>526</v>
-      </c>
-      <c r="B521" t="s">
-        <v>0</v>
-      </c>
-      <c r="C521" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>524</v>
-      </c>
-      <c r="B522" t="s">
-        <v>0</v>
-      </c>
-      <c r="C522" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>525</v>
       </c>
       <c r="B523" t="s">
         <v>0</v>
       </c>
       <c r="C523" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C524" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>527</v>
+      </c>
+      <c r="B525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>521</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C526" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>523</v>
+      </c>
+      <c r="B527" t="s">
+        <v>0</v>
+      </c>
+      <c r="C527" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>0</v>
+      </c>
+      <c r="C528" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>524</v>
+      </c>
+      <c r="B529" t="s">
+        <v>0</v>
+      </c>
+      <c r="C529" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>525</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+      <c r="C530" t="s">
         <v>229</v>
       </c>
     </row>

--- a/data/interim/ingredient_foogroup.xlsx
+++ b/data/interim/ingredient_foogroup.xlsx
@@ -1809,7 +1809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1817,15 +1817,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,5849 +2209,5849 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="A30" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="A43" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="C43" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5">
+      <c r="A44" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="A45" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="A46" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="A47" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="A51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="A52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="A53" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="A54" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="A55" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="A56" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="A57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="A59" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="A60" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="A61" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="A62" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="A63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="A64" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="A65" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="A66" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="A67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="A68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="A69" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="A72" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="A73" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="A74" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="A75" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="A76" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="A77" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="A78" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="A79" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="A80" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="A82" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A83" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="A84" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="A86" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="A87" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="A88" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="A89" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="A95" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="A97" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="A98" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="A99" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="A100" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="A101" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="A102" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="A103" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="A104" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="A110" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="A111" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="A112" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="A113" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="A114" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="A115" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="A116" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="A118" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="A119" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="A120" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="A121" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="A122" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="A123" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="A124" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="A125" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="A126" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="A127" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="A128" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="A129" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="A130" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="A131" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="A132" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="A133" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="A134" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="A135" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="A136" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="A137" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="A138" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="A139" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="A140" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="A141" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="A142" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="A143" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
+      <c r="A144" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="A145" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
+      <c r="A146" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="A147" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="A148" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="A149" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="A150" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="A151" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="A152" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="A153" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
+      <c r="A154" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="A155" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="A156" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="A157" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="A158" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="A159" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="s">
+      <c r="A160" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="A161" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
+      <c r="A162" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="A163" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
+      <c r="A164" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="A165" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="A166" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="A167" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
+      <c r="A168" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="A169" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="A170" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="A171" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
+      <c r="A172" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="A173" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="A174" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="A175" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="A176" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="A177" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="s">
+      <c r="A178" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="A179" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="s">
+      <c r="A180" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="s">
+      <c r="A181" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="s">
+      <c r="A182" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="s">
+      <c r="A183" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="s">
+      <c r="A184" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="A185" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="s">
+      <c r="A186" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="A187" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="s">
+      <c r="A188" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="s">
+      <c r="A189" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="s">
+      <c r="A190" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="A191" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="s">
+      <c r="A192" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="A193" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="s">
+      <c r="A194" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="A195" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="s">
+      <c r="A196" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="s">
+      <c r="A197" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="A198" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="A199" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="A200" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="A201" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="s">
+      <c r="A202" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="A203" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="A204" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="A205" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="A206" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="A207" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="s">
+      <c r="A208" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="s">
+      <c r="A209" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" t="s">
+      <c r="A210" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="A211" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="s">
+      <c r="A212" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" t="s">
+      <c r="A213" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" t="s">
+      <c r="A214" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="A215" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" t="s">
+      <c r="A216" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="s">
+      <c r="A217" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="s">
+      <c r="A218" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="s">
+      <c r="A219" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="s">
+      <c r="A220" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="A221" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="A222" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="A223" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="A224" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="A225" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="B226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" t="s">
+      <c r="B227" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B228" t="s">
-        <v>12</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="B228" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="B229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B230" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="B230" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="s">
+      <c r="A231" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="s">
+      <c r="B231" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="s">
+      <c r="A232" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="s">
+      <c r="B232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="s">
+      <c r="A233" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="B233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="s">
+      <c r="A234" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="B234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" t="s">
+      <c r="A235" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
+      <c r="B235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" t="s">
+      <c r="A236" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
+      <c r="B236" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" t="s">
+      <c r="A237" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="B237" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" t="s">
+      <c r="A238" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="B238" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" t="s">
+      <c r="A239" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B239" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="B239" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="s">
+      <c r="A240" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B240" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s">
+      <c r="B240" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="s">
+      <c r="A241" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B241" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="B241" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" t="s">
+      <c r="A242" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B242" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="B242" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" t="s">
+      <c r="A243" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B243" t="s">
-        <v>12</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="B243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" t="s">
+      <c r="A244" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B244" t="s">
-        <v>12</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" t="s">
+      <c r="A245" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B245" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="B245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" t="s">
+      <c r="A246" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B246" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="B246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" t="s">
+      <c r="A247" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B247" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="B247" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" t="s">
+      <c r="A248" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="B248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" t="s">
+      <c r="A249" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B249" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="B249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" t="s">
+      <c r="A250" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B250" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="B250" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" t="s">
+      <c r="A251" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B251" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="B251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" t="s">
+      <c r="A252" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B252" t="s">
-        <v>12</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="B252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" t="s">
+      <c r="A253" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B253" t="s">
-        <v>12</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="B253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" t="s">
+      <c r="A254" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B254" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="B254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="s">
+      <c r="A255" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B255" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="B255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="s">
+      <c r="A256" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B256" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="B256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" t="s">
+      <c r="A257" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B257" t="s">
-        <v>12</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="B257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" t="s">
+      <c r="A258" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B258" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="B258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" t="s">
+      <c r="A259" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B259" t="s">
-        <v>12</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="B259" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" t="s">
+      <c r="A260" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B260" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="B260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" t="s">
+      <c r="A261" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B261" t="s">
-        <v>12</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="B261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" t="s">
+      <c r="A262" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B262" t="s">
-        <v>12</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="B262" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" t="s">
+      <c r="A263" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B263" t="s">
-        <v>12</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="B263" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" t="s">
+      <c r="A264" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B264" t="s">
-        <v>12</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B264" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" t="s">
+      <c r="A265" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B265" t="s">
-        <v>12</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="B265" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" t="s">
+      <c r="A266" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B266" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="B266" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" t="s">
+      <c r="A267" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B267" t="s">
-        <v>12</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="B267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" t="s">
+      <c r="A268" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B268" t="s">
-        <v>12</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="B268" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" t="s">
+      <c r="A269" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B269" t="s">
-        <v>12</v>
-      </c>
-      <c r="C269" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
+      <c r="B269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="28.5">
+      <c r="A270" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B270" t="s">
-        <v>12</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="B270" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" t="s">
+      <c r="A271" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B271" t="s">
-        <v>12</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="B271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" t="s">
+      <c r="A272" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B272" t="s">
-        <v>12</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="B272" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" t="s">
+      <c r="A273" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B273" t="s">
-        <v>12</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="B273" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" t="s">
+      <c r="A274" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B274" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="B274" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" t="s">
+      <c r="A275" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B275" t="s">
-        <v>12</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="B275" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" t="s">
+      <c r="A276" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B276" t="s">
-        <v>12</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="B276" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" t="s">
+      <c r="A277" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B277" t="s">
-        <v>12</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="B277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" t="s">
+      <c r="A278" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B278" t="s">
-        <v>12</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="B278" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" t="s">
+      <c r="A279" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B279" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="B279" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" t="s">
+      <c r="A280" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B280" t="s">
-        <v>12</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="B280" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" t="s">
+      <c r="A281" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B281" t="s">
-        <v>12</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="B281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" t="s">
+      <c r="A282" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B282" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="B282" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" t="s">
+      <c r="A283" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B283" t="s">
-        <v>12</v>
-      </c>
-      <c r="C283" t="s">
+      <c r="B283" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" t="s">
+      <c r="A284" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B284" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="B284" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" t="s">
+      <c r="A285" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B285" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="B285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" t="s">
+      <c r="A286" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B286" t="s">
-        <v>12</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="B286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" t="s">
+      <c r="A287" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B287" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="B287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" t="s">
+      <c r="A288" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B288" t="s">
-        <v>12</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="B288" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B289" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="B289" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B290" t="s">
-        <v>12</v>
-      </c>
-      <c r="C290" t="s">
+      <c r="B290" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B291" t="s">
-        <v>12</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="B291" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="s">
+      <c r="A292" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B292" t="s">
-        <v>12</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="B292" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" t="s">
+      <c r="A293" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B293" t="s">
-        <v>12</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" t="s">
+      <c r="A294" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B294" t="s">
-        <v>12</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="B294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" t="s">
+      <c r="A295" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B295" t="s">
-        <v>12</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="B295" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" t="s">
+      <c r="A296" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B296" t="s">
-        <v>12</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="B296" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" t="s">
+      <c r="A297" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B297" t="s">
-        <v>12</v>
-      </c>
-      <c r="C297" t="s">
+      <c r="B297" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" t="s">
+      <c r="A298" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B298" t="s">
-        <v>12</v>
-      </c>
-      <c r="C298" t="s">
+      <c r="B298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" t="s">
+      <c r="A299" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B299" t="s">
-        <v>12</v>
-      </c>
-      <c r="C299" t="s">
+      <c r="B299" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" t="s">
+      <c r="A300" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B300" t="s">
-        <v>12</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="B300" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" t="s">
+      <c r="A301" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B301" t="s">
-        <v>12</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="B301" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" t="s">
+      <c r="A302" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B302" t="s">
-        <v>12</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="B302" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" t="s">
+      <c r="A303" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B303" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" t="s">
+      <c r="B303" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" t="s">
+      <c r="A304" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B304" t="s">
-        <v>12</v>
-      </c>
-      <c r="C304" t="s">
+      <c r="B304" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" t="s">
+      <c r="A305" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B305" t="s">
-        <v>12</v>
-      </c>
-      <c r="C305" t="s">
+      <c r="B305" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" t="s">
+      <c r="A306" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B306" t="s">
-        <v>12</v>
-      </c>
-      <c r="C306" t="s">
+      <c r="B306" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" t="s">
+      <c r="A307" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B307" t="s">
-        <v>12</v>
-      </c>
-      <c r="C307" t="s">
+      <c r="B307" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" t="s">
+      <c r="A308" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B308" t="s">
-        <v>12</v>
-      </c>
-      <c r="C308" t="s">
+      <c r="B308" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" t="s">
+      <c r="A309" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B309" t="s">
-        <v>12</v>
-      </c>
-      <c r="C309" t="s">
+      <c r="B309" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" t="s">
+      <c r="A310" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B310" t="s">
-        <v>12</v>
-      </c>
-      <c r="C310" t="s">
+      <c r="B310" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" t="s">
+      <c r="A311" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B311" t="s">
-        <v>12</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="B311" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" t="s">
+      <c r="A312" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B312" t="s">
-        <v>12</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="B312" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" t="s">
+      <c r="A313" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B313" t="s">
-        <v>12</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="B313" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" t="s">
+      <c r="A314" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" t="s">
+      <c r="A315" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" t="s">
+      <c r="A316" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" t="s">
+      <c r="A317" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" t="s">
+      <c r="A318" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" t="s">
+      <c r="A319" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" t="s">
+      <c r="A320" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" t="s">
+      <c r="A321" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" t="s">
+      <c r="A322" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" t="s">
+      <c r="A323" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" t="s">
+      <c r="A324" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" t="s">
+      <c r="A325" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" t="s">
+      <c r="A326" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" t="s">
+      <c r="A327" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" t="s">
+      <c r="A328" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" t="s">
+      <c r="A329" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" t="s">
+      <c r="A330" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" t="s">
+      <c r="A331" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" t="s">
+      <c r="A332" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" t="s">
+      <c r="A333" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" t="s">
+      <c r="A334" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" t="s">
+      <c r="A335" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" t="s">
+      <c r="A336" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" t="s">
+      <c r="A337" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" t="s">
+      <c r="A338" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" t="s">
+      <c r="A339" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" t="s">
+      <c r="A340" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" t="s">
+      <c r="A341" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" t="s">
+      <c r="A342" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" t="s">
+      <c r="A343" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" t="s">
+      <c r="A344" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" t="s">
+      <c r="A345" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" t="s">
+      <c r="A346" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" t="s">
+      <c r="A347" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" t="s">
+      <c r="A348" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" t="s">
+      <c r="A349" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" t="s">
+      <c r="A350" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" t="s">
+      <c r="A351" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" t="s">
+      <c r="A352" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" t="s">
+      <c r="A353" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" t="s">
+      <c r="A354" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" t="s">
+      <c r="A355" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" t="s">
+      <c r="A356" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" t="s">
+      <c r="A357" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" t="s">
+      <c r="A358" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" t="s">
+      <c r="A359" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" t="s">
+      <c r="A360" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" t="s">
+      <c r="A361" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" t="s">
+      <c r="A362" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" t="s">
+      <c r="A363" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" t="s">
+      <c r="A364" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" t="s">
+      <c r="A365" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" t="s">
+      <c r="A366" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" t="s">
+      <c r="A367" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" t="s">
+      <c r="A368" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" t="s">
+      <c r="A369" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" t="s">
+      <c r="A370" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C370" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" s="3" customFormat="1">
-      <c r="A371" s="3" t="s">
+      <c r="C370" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="2" customFormat="1">
+      <c r="A371" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" s="3" customFormat="1">
-      <c r="A372" s="3" t="s">
+      <c r="C371" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="2" customFormat="1">
+      <c r="A372" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" t="s">
+      <c r="A373" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" t="s">
+      <c r="A374" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" t="s">
+      <c r="A375" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" t="s">
+      <c r="A376" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" t="s">
+      <c r="A377" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" t="s">
+      <c r="A378" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" t="s">
+      <c r="A379" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" t="s">
+      <c r="A380" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" t="s">
+      <c r="A381" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" t="s">
+      <c r="A382" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C382" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" s="2" customFormat="1">
-      <c r="A383" s="2" t="s">
+      <c r="C382" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="1" customFormat="1">
+      <c r="A383" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D383"/>
     </row>
-    <row r="384" spans="1:4" s="2" customFormat="1">
-      <c r="A384" s="2" t="s">
+    <row r="384" spans="1:4" s="1" customFormat="1">
+      <c r="A384" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D384"/>
     </row>
-    <row r="385" spans="1:4" s="2" customFormat="1">
-      <c r="A385" s="2" t="s">
+    <row r="385" spans="1:4" s="1" customFormat="1">
+      <c r="A385" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C385" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D385"/>
     </row>
-    <row r="386" spans="1:4" s="2" customFormat="1">
-      <c r="A386" s="2" t="s">
+    <row r="386" spans="1:4" s="1" customFormat="1">
+      <c r="A386" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D386"/>
     </row>
-    <row r="387" spans="1:4" s="2" customFormat="1">
-      <c r="A387" s="2" t="s">
+    <row r="387" spans="1:4" s="1" customFormat="1">
+      <c r="A387" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D387"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" t="s">
+      <c r="A388" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" t="s">
+      <c r="A389" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" t="s">
+      <c r="A390" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" t="s">
+      <c r="A391" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" t="s">
+      <c r="A392" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" t="s">
+      <c r="A393" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" t="s">
+      <c r="A394" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" t="s">
+      <c r="A395" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" t="s">
+      <c r="A396" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" t="s">
+      <c r="A397" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" t="s">
+      <c r="A398" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" t="s">
+      <c r="A399" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" t="s">
+      <c r="A400" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" t="s">
+      <c r="A401" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" t="s">
+      <c r="A402" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" t="s">
+      <c r="A403" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" t="s">
+      <c r="A404" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" t="s">
+      <c r="A405" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" t="s">
+      <c r="A406" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" t="s">
+      <c r="A407" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" t="s">
+      <c r="A408" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" t="s">
+      <c r="A409" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" t="s">
+      <c r="A410" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" t="s">
+      <c r="A411" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" t="s">
+      <c r="A412" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" t="s">
+      <c r="A413" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" t="s">
+      <c r="A414" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" t="s">
+      <c r="A415" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" t="s">
+      <c r="A416" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" t="s">
+      <c r="A417" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" t="s">
+      <c r="A418" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" t="s">
+      <c r="A419" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" t="s">
+      <c r="A420" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" t="s">
+      <c r="A421" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" t="s">
+      <c r="A422" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" t="s">
+      <c r="A423" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" t="s">
+      <c r="A424" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" t="s">
+      <c r="A425" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" t="s">
+      <c r="A426" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" t="s">
+      <c r="A427" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" t="s">
+      <c r="A428" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" t="s">
+      <c r="A429" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" t="s">
+      <c r="A430" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" t="s">
+      <c r="A431" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" t="s">
+      <c r="A432" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" t="s">
+      <c r="A433" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" t="s">
+      <c r="A434" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" t="s">
+      <c r="A435" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" t="s">
+      <c r="A436" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" t="s">
+      <c r="A437" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" t="s">
+      <c r="A438" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" t="s">
+      <c r="A439" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" t="s">
+      <c r="A440" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" t="s">
+      <c r="A441" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" t="s">
+      <c r="A442" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" t="s">
+      <c r="A443" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" t="s">
+      <c r="A444" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="445" spans="1:3">
-      <c r="A445" t="s">
+      <c r="A445" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" t="s">
+      <c r="A446" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" t="s">
+      <c r="A447" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" t="s">
+      <c r="A448" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" t="s">
+      <c r="A449" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" t="s">
+      <c r="A450" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="A451" t="s">
+      <c r="A451" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" t="s">
+      <c r="A452" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" t="s">
+      <c r="A453" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="A454" t="s">
+      <c r="A454" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="455" spans="1:3">
-      <c r="A455" t="s">
+      <c r="A455" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" t="s">
+      <c r="A456" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" t="s">
+      <c r="A457" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" t="s">
+      <c r="A458" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C458" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" t="s">
+      <c r="A459" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" t="s">
+      <c r="A460" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" t="s">
+      <c r="A461" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" t="s">
+      <c r="A462" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="463" spans="1:3">
-      <c r="A463" t="s">
+      <c r="A463" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" t="s">
+      <c r="A464" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" t="s">
+      <c r="A465" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" t="s">
+      <c r="A466" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" t="s">
+      <c r="A467" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="A468" t="s">
+      <c r="A468" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="A469" t="s">
+      <c r="A469" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" t="s">
+      <c r="A470" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="A471" t="s">
+      <c r="A471" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C471" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" t="s">
+      <c r="A472" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C472" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="A473" t="s">
+      <c r="A473" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="A474" t="s">
+      <c r="A474" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C474" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" t="s">
+      <c r="A475" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" t="s">
+      <c r="A476" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C476" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="A477" t="s">
+      <c r="A477" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C477" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" t="s">
+      <c r="A478" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C478" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" t="s">
+      <c r="A479" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C479" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="A480" t="s">
+      <c r="A480" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C480" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" t="s">
+      <c r="A481" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" t="s">
+      <c r="A482" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C482" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" t="s">
+      <c r="A483" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" t="s">
+      <c r="A484" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C484" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" t="s">
+      <c r="A485" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" t="s">
+      <c r="A486" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" t="s">
+      <c r="A487" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" t="s">
+      <c r="A488" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" t="s">
+      <c r="A489" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" t="s">
+      <c r="A490" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" t="s">
+      <c r="A491" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" t="s">
+      <c r="A492" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C492" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="493" spans="1:3">
-      <c r="A493" t="s">
+      <c r="A493" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" t="s">
+      <c r="A494" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C494" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" t="s">
+      <c r="A495" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C495" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" t="s">
+      <c r="A496" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C496" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" t="s">
+      <c r="A497" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="A498" t="s">
+      <c r="A498" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" t="s">
+      <c r="A499" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" t="s">
+      <c r="A500" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" t="s">
+      <c r="A501" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C501" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" t="s">
+      <c r="A502" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C502" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" t="s">
+      <c r="A503" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C503" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" t="s">
+      <c r="A504" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" t="s">
+      <c r="A505" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C505" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" t="s">
+      <c r="A506" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C506" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" t="s">
+      <c r="A507" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C507" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="A508" t="s">
+      <c r="A508" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C508" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="A509" t="s">
+      <c r="A509" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C509" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="A510" t="s">
+      <c r="A510" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C510" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="511" spans="1:3">
-      <c r="A511" t="s">
+      <c r="A511" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C511" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="A512" t="s">
+      <c r="A512" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" t="s">
+      <c r="A513" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C513" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="A514" t="s">
+      <c r="A514" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="A515" t="s">
+      <c r="A515" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C515" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="A516" t="s">
+      <c r="A516" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C516" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="517" spans="1:3">
-      <c r="A517" t="s">
+      <c r="A517" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C517" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" t="s">
+      <c r="A518" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C518" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="A519" t="s">
+      <c r="A519" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C519" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="520" spans="1:3">
-      <c r="A520" t="s">
+      <c r="A520" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="521" spans="1:3">
-      <c r="A521" t="s">
+      <c r="A521" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C521" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="522" spans="1:3">
-      <c r="A522" t="s">
+      <c r="A522" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C522" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" t="s">
+      <c r="A523" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C523" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="A524" t="s">
+      <c r="A524" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C524" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" t="s">
+      <c r="A525" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C525" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="526" spans="1:3">
-      <c r="A526" t="s">
+      <c r="A526" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C526" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" t="s">
+      <c r="A527" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C527" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="528" spans="1:3">
-      <c r="A528" t="s">
+      <c r="A528" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C528" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="529" spans="1:3">
-      <c r="A529" t="s">
+      <c r="A529" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C529" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" t="s">
+      <c r="A530" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C530" s="4" t="s">
         <v>229</v>
       </c>
     </row>
